--- a/ESPN sports website/IPL/Mumbai Indians/.xlsx
+++ b/ESPN sports website/IPL/Mumbai Indians/.xlsx
@@ -460,16 +460,16 @@
         <v/>
       </c>
       <c r="H2" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Punjab Kings</v>
       </c>
       <c r="I2" t="str">
-        <v>Wankhede</v>
+        <v>Pune</v>
       </c>
       <c r="J2" t="str">
-        <v>May 12, 2022</v>
+        <v>April 13, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Mumbai won by 5 wickets (with 31 balls remaining)</v>
+        <v>Punjab Kings won by 12 runs</v>
       </c>
     </row>
   </sheetData>
